--- a/Web/Doc/数据库设计2--修改了个别表名.xlsx
+++ b/Web/Doc/数据库设计2--修改了个别表名.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zsn/Documents/Project/GoHome/Web/Doc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1582715F-7C03-A040-BD44-5BC64D30285E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="11020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dictionary" sheetId="1" r:id="rId1"/>
     <sheet name="business" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -665,8 +671,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -681,6 +687,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="华文行楷"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -717,7 +730,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -726,6 +739,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1033,21 +1049,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
   </cols>
@@ -1319,13 +1335,15 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" t="s">
+      <c r="A28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="B28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1415,14 +1433,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">

--- a/Web/Doc/数据库设计2--修改了个别表名.xlsx
+++ b/Web/Doc/数据库设计2--修改了个别表名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zsn/Documents/Project/GoHome/Web/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663C3730-5E8A-DD4A-A799-144F08C40798}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2C85EA-0CCA-AA4A-9AAF-5B0CCF4871E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="165">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -673,6 +673,18 @@
   </si>
   <si>
     <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsReleaseStasus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：未发布完成，1：已发布完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -704,7 +716,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -723,6 +735,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -738,7 +756,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -750,6 +768,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1444,8 +1465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1872,13 +1893,15 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" t="s">
+      <c r="A21" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="B21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
         <v>161</v>
       </c>
       <c r="I21" t="s">
@@ -1898,6 +1921,19 @@
       </c>
     </row>
     <row r="22" spans="1:13">
+      <c r="A22" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="I22" t="s">
         <v>94</v>
       </c>

--- a/Web/Doc/数据库设计2--修改了个别表名.xlsx
+++ b/Web/Doc/数据库设计2--修改了个别表名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zsn/Documents/Project/GoHome/Web/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2C85EA-0CCA-AA4A-9AAF-5B0CCF4871E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5FB620-EC4F-3947-B4F6-EBF3858F2679}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -676,15 +676,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IsReleaseStasus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>默认值0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0：未发布完成，1：已发布完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsReleaseStatus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -766,11 +766,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1098,12 +1098,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1159,12 +1159,12 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1242,12 +1242,12 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1303,12 +1303,12 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="1" t="s">
         <v>5</v>
       </c>
@@ -1388,12 +1388,12 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
       <c r="E32" s="1" t="s">
         <v>5</v>
       </c>
@@ -1465,37 +1465,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:E21"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
       <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
       <c r="S1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1646,12 +1649,12 @@
       <c r="E7" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
       <c r="M7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1774,12 +1777,12 @@
       <c r="E14" t="s">
         <v>79</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
       <c r="M14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1882,26 +1885,26 @@
       <c r="E20" t="s">
         <v>91</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
       <c r="M20" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4" t="s">
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
         <v>161</v>
       </c>
       <c r="I21" t="s">
@@ -1921,18 +1924,18 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="I22" t="s">
         <v>94</v>
@@ -1956,21 +1959,21 @@
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
       <c r="M25" s="1" t="s">
         <v>5</v>
       </c>
